--- a/source/requirements_app_PEGS.xlsx
+++ b/source/requirements_app_PEGS.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Cours\M2\exigences\re-2026-etienne-thomas-d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Etu\Desktop\M2\S2\Requierments\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{041B6B62-C6F0-4282-9907-2154F9BF970F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765857CA-2F0E-4778-8328-D9327C067C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="321">
   <si>
     <t>ID</t>
   </si>
@@ -979,13 +979,22 @@
   </si>
   <si>
     <t>Protège le Time-to-Code et évite de s'éparpiller</t>
+  </si>
+  <si>
+    <t>S-63</t>
+  </si>
+  <si>
+    <t>S.7</t>
+  </si>
+  <si>
+    <t>TEST</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1002,6 +1011,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1065,27 +1080,6 @@
   </cellStyles>
   <dxfs count="15">
     <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1124,6 +1118,27 @@
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1138,22 +1153,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02395E64-223E-4C7E-B1E7-DFD1E0F05F91}" name="Tableau1" displayName="Tableau1" ref="A1:N49" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="A1:N49" xr:uid="{02395E64-223E-4C7E-B1E7-DFD1E0F05F91}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02395E64-223E-4C7E-B1E7-DFD1E0F05F91}" name="Tableau1" displayName="Tableau1" ref="A1:N50" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:N50" xr:uid="{02395E64-223E-4C7E-B1E7-DFD1E0F05F91}"/>
   <tableColumns count="14">
-    <tableColumn id="1" xr3:uid="{FED874BB-E7AB-4992-B9CF-6CB8848E8D74}" name="#" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{C2490B20-ACE7-4EE7-9C1C-FFF1C4CD6777}" name="ID" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{4364A4AA-BD48-4211-AB40-5C44FF401C5B}" name="Category" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{5A319B24-3A6F-4989-91D1-C5FC0AC53AFA}" name="MoSCoW" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{7A8F85DC-D987-4FE2-8265-8CE527880971}" name="PEGS Type" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{87F1C526-58B4-42FB-AD4D-9229B4B5C532}" name="PEGS Ref" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{BE5694ED-8246-4BEF-B781-3C91AFFC11A4}" name="Title" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{BB3F5AD1-1ED7-477D-B35E-E507E8612F72}" name="Description" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{EE63750C-73AA-4141-B60B-CF1674CE451C}" name="Rationale" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{E38E835C-4F63-441C-B88D-CBF4ADBD2DAA}" name="Stakeholder" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{B7BCF3BE-41EC-4CA0-AC7D-5392559D92A2}" name="Source" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{EB84D893-2606-4EA3-B6E0-8D0C8FA5586E}" name="Priority" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{C0CD20D8-A7F1-4C11-801D-8B3EA063AD7B}" name="Acceptance Criteria" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{FED874BB-E7AB-4992-B9CF-6CB8848E8D74}" name="#" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{C2490B20-ACE7-4EE7-9C1C-FFF1C4CD6777}" name="ID" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{4364A4AA-BD48-4211-AB40-5C44FF401C5B}" name="Category" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{5A319B24-3A6F-4989-91D1-C5FC0AC53AFA}" name="MoSCoW" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{7A8F85DC-D987-4FE2-8265-8CE527880971}" name="PEGS Type" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{87F1C526-58B4-42FB-AD4D-9229B4B5C532}" name="PEGS Ref" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{BE5694ED-8246-4BEF-B781-3C91AFFC11A4}" name="Title" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{BB3F5AD1-1ED7-477D-B35E-E507E8612F72}" name="Description" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{EE63750C-73AA-4141-B60B-CF1674CE451C}" name="Rationale" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{E38E835C-4F63-441C-B88D-CBF4ADBD2DAA}" name="Stakeholder" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{B7BCF3BE-41EC-4CA0-AC7D-5392559D92A2}" name="Source" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{EB84D893-2606-4EA3-B6E0-8D0C8FA5586E}" name="Priority" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{C0CD20D8-A7F1-4C11-801D-8B3EA063AD7B}" name="Acceptance Criteria" dataDxfId="0"/>
     <tableColumn id="14" xr3:uid="{2FEF550D-FFFD-44E4-9B77-D9E2572F0EF8}" name="Status"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1445,10 +1460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N49"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3624,7 +3639,52 @@
         <v>24</v>
       </c>
     </row>
+    <row r="50" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="I50" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="J50" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="K50" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="L50" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="M50" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="N50" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">

--- a/source/requirements_app_PEGS.xlsx
+++ b/source/requirements_app_PEGS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Etu\Desktop\M2\S2\Requierments\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{765857CA-2F0E-4778-8328-D9327C067C54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47C5AE89-3EFB-474D-8EBE-6CBB9B9450D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="318">
   <si>
     <t>ID</t>
   </si>
@@ -979,15 +979,6 @@
   </si>
   <si>
     <t>Protège le Time-to-Code et évite de s'éparpiller</t>
-  </si>
-  <si>
-    <t>S-63</t>
-  </si>
-  <si>
-    <t>S.7</t>
-  </si>
-  <si>
-    <t>TEST</t>
   </si>
 </sst>
 </file>
@@ -1153,8 +1144,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02395E64-223E-4C7E-B1E7-DFD1E0F05F91}" name="Tableau1" displayName="Tableau1" ref="A1:N50" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:N50" xr:uid="{02395E64-223E-4C7E-B1E7-DFD1E0F05F91}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02395E64-223E-4C7E-B1E7-DFD1E0F05F91}" name="Tableau1" displayName="Tableau1" ref="A1:N49" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A1:N49" xr:uid="{02395E64-223E-4C7E-B1E7-DFD1E0F05F91}"/>
   <tableColumns count="14">
     <tableColumn id="1" xr3:uid="{FED874BB-E7AB-4992-B9CF-6CB8848E8D74}" name="#" dataDxfId="12"/>
     <tableColumn id="2" xr3:uid="{C2490B20-ACE7-4EE7-9C1C-FFF1C4CD6777}" name="ID" dataDxfId="11"/>
@@ -1460,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3639,50 +3630,6 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>49</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>318</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="H50" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="I50" s="8" t="s">
-        <v>313</v>
-      </c>
-      <c r="J50" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K50" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="L50" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="M50" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="N50" t="s">
-        <v>24</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/source/requirements_app_PEGS.xlsx
+++ b/source/requirements_app_PEGS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Etu\Desktop\M2\S2\Requierments\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1C34800-FA63-4262-AC62-B53DE8453AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAA4F170-AF9E-46A7-8A88-85090CC9EEC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="311">
   <si>
     <t>ID</t>
   </si>
@@ -33,9 +33,6 @@
     <t>Category</t>
   </si>
   <si>
-    <t>PEGS Type</t>
-  </si>
-  <si>
     <t>PEGS Ref</t>
   </si>
   <si>
@@ -84,9 +81,6 @@
     <t>Cadrage projet</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Une matrice rôles→droits est disponible et couvre toutes les fonctionnalités V1.</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>Roadmap</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
     <t>Un document 'Scope V1' existe, avec une section 'Non inclus'.</t>
   </si>
   <si>
@@ -450,9 +441,6 @@
     <t>Méthode</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Le glossaire contient au moins 10 termes et est utilisé dans les descriptions.</t>
   </si>
   <si>
@@ -753,9 +741,6 @@
     <t>V2</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>Ajouter une mesure et l’afficher sur une courbe simple.</t>
   </si>
   <si>
@@ -961,6 +946,18 @@
   </si>
   <si>
     <t>Protège le Time-to-Code et évite de s'éparpiller</t>
+  </si>
+  <si>
+    <t>Très haute</t>
+  </si>
+  <si>
+    <t>Haute</t>
+  </si>
+  <si>
+    <t>Moyen</t>
+  </si>
+  <si>
+    <t>Faible</t>
   </si>
 </sst>
 </file>
@@ -1048,7 +1045,10 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1066,12 +1066,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1120,21 +1114,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02395E64-223E-4C7E-B1E7-DFD1E0F05F91}" name="Tableau1" displayName="Tableau1" ref="A1:L49" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:L49" xr:uid="{02395E64-223E-4C7E-B1E7-DFD1E0F05F91}"/>
-  <tableColumns count="12">
-    <tableColumn id="1" xr3:uid="{FED874BB-E7AB-4992-B9CF-6CB8848E8D74}" name="#" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{C2490B20-ACE7-4EE7-9C1C-FFF1C4CD6777}" name="ID" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{4364A4AA-BD48-4211-AB40-5C44FF401C5B}" name="Category" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{7A8F85DC-D987-4FE2-8265-8CE527880971}" name="PEGS Type" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{87F1C526-58B4-42FB-AD4D-9229B4B5C532}" name="PEGS Ref" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{BE5694ED-8246-4BEF-B781-3C91AFFC11A4}" name="Title" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{BB3F5AD1-1ED7-477D-B35E-E507E8612F72}" name="Description" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{EE63750C-73AA-4141-B60B-CF1674CE451C}" name="Rationale" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{E38E835C-4F63-441C-B88D-CBF4ADBD2DAA}" name="Stakeholder" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{B7BCF3BE-41EC-4CA0-AC7D-5392559D92A2}" name="Source" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{EB84D893-2606-4EA3-B6E0-8D0C8FA5586E}" name="Priority" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{C0CD20D8-A7F1-4C11-801D-8B3EA063AD7B}" name="Acceptance Criteria" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{02395E64-223E-4C7E-B1E7-DFD1E0F05F91}" name="Tableau1" displayName="Tableau1" ref="A1:K49" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:K49" xr:uid="{02395E64-223E-4C7E-B1E7-DFD1E0F05F91}"/>
+  <tableColumns count="11">
+    <tableColumn id="1" xr3:uid="{FED874BB-E7AB-4992-B9CF-6CB8848E8D74}" name="#" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{C2490B20-ACE7-4EE7-9C1C-FFF1C4CD6777}" name="ID" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{4364A4AA-BD48-4211-AB40-5C44FF401C5B}" name="Category" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{87F1C526-58B4-42FB-AD4D-9229B4B5C532}" name="PEGS Ref" dataDxfId="8"/>
+    <tableColumn id="7" xr3:uid="{BE5694ED-8246-4BEF-B781-3C91AFFC11A4}" name="Title" dataDxfId="7"/>
+    <tableColumn id="8" xr3:uid="{BB3F5AD1-1ED7-477D-B35E-E507E8612F72}" name="Description" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{EE63750C-73AA-4141-B60B-CF1674CE451C}" name="Rationale" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{E38E835C-4F63-441C-B88D-CBF4ADBD2DAA}" name="Stakeholder" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{B7BCF3BE-41EC-4CA0-AC7D-5392559D92A2}" name="Source" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{EB84D893-2606-4EA3-B6E0-8D0C8FA5586E}" name="Priority" dataDxfId="2"/>
+    <tableColumn id="13" xr3:uid="{C0CD20D8-A7F1-4C11-801D-8B3EA063AD7B}" name="Acceptance Criteria" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1425,29 +1418,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L49"/>
+  <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="2"/>
     <col min="2" max="2" width="8.44140625" style="2" customWidth="1"/>
-    <col min="3" max="4" width="13" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="37" style="2" customWidth="1"/>
-    <col min="7" max="7" width="50.44140625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="40" style="7" customWidth="1"/>
-    <col min="9" max="10" width="20" style="2" customWidth="1"/>
-    <col min="11" max="11" width="10" style="2" customWidth="1"/>
-    <col min="12" max="12" width="40" style="4" customWidth="1"/>
+    <col min="3" max="3" width="13" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="37" style="2" customWidth="1"/>
+    <col min="6" max="6" width="50.44140625" style="9" customWidth="1"/>
+    <col min="7" max="7" width="40" style="7" customWidth="1"/>
+    <col min="8" max="9" width="20" style="2" customWidth="1"/>
+    <col min="10" max="10" width="10" style="2" customWidth="1"/>
+    <col min="11" max="11" width="40" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1461,13 +1454,13 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1476,22 +1469,19 @@
       <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -1499,1812 +1489,1668 @@
       <c r="E2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="J3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="J4" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K4" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
+      <c r="G5" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="I5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="J5" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K5" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I5" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="G6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="J6" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K6" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2" t="s">
+      <c r="G7" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="J7" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L7" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="F8" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E8" s="2" t="s">
+      <c r="G8" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="J8" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K8" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="2" t="s">
+      <c r="G9" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="J9" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="H9" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="2" t="s">
+      <c r="G10" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="J10" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K10" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="H11" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="J11" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K11" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="H11" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="2" t="s">
+      <c r="G12" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="J12" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K12" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="H12" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L12" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="G13" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="H13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="J13" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K13" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="F14" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="G14" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="H14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="J14" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>105</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L14" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G15" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="J15" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K15" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H15" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="I15" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="K15" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="F16" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="2" t="s">
+      <c r="G16" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="J16" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K16" s="4" t="s">
         <v>118</v>
       </c>
-      <c r="H16" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L16" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="J17" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K17" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="H17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L17" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="F18" s="2" t="s">
+      <c r="H18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I18" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="J18" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K18" s="4" t="s">
         <v>131</v>
       </c>
-      <c r="H18" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F19" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="E19" s="2" t="s">
+      <c r="G19" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="H19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="J19" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="H19" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L19" s="4" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F20" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="G20" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="D20" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="2" t="s">
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="J20" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K20" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>147</v>
-      </c>
-      <c r="H20" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="4" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H21" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="G21" s="9" t="s">
+      <c r="J21" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="H21" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="J21" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="K21" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L21" s="4" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="H22" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="J22" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K22" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K22" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L22" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I23" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F23" s="2" t="s">
+      <c r="J23" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K23" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="H23" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="I23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K23" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L23" s="4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K24" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E24" s="2" t="s">
+    </row>
+    <row r="25" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="F24" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K24" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="4" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="2" t="s">
+      <c r="J25" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L25" s="4" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="C26" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="I26" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="4" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>188</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L27" s="4" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>189</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K28" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>193</v>
-      </c>
-      <c r="H28" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="I28" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L28" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K29" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>198</v>
-      </c>
-      <c r="H29" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="I29" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K29" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F30" s="2" t="s">
+      <c r="J30" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K30" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="G30" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H30" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I30" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K30" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L30" s="4" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K31" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H31" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="I31" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="K31" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K32" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="C32" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="H32" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="I32" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="K32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L32" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>217</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F33" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="I33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K33" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L33" s="4" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K34" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F34" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H34" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J34" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K34" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L34" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K35" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>229</v>
-      </c>
-      <c r="H35" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="I35" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K35" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="K36" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="I36" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J36" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="K36" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L36" s="4" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F37" s="2" t="s">
+      <c r="J37" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="K37" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="G37" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="H37" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="I37" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J37" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="K37" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>144</v>
+        <v>155</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="F38" s="2" t="s">
-        <v>245</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="H38" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>26</v>
+        <v>237</v>
       </c>
       <c r="J38" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="K38" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="L38" s="4" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>310</v>
+      </c>
+      <c r="K38" s="4" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>247</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C39" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E39" s="2" t="s">
+      <c r="J39" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K39" s="4" t="s">
         <v>250</v>
       </c>
-      <c r="F39" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>252</v>
-      </c>
-      <c r="H39" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="I39" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J39" s="2" t="s">
-        <v>254</v>
-      </c>
-      <c r="K39" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L39" s="4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>144</v>
+        <v>245</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="H40" s="7" t="s">
-        <v>259</v>
+        <v>252</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>253</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I40" s="2" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="J40" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K40" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L40" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>144</v>
+        <v>245</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>250</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>264</v>
+        <v>257</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I41" s="2" t="s">
-        <v>26</v>
+        <v>165</v>
       </c>
       <c r="J41" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="K41" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L41" s="4" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+      <c r="K41" s="4" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K42" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="H42" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="J42" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K42" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L42" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="H43" s="7" t="s">
-        <v>275</v>
+        <v>268</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>269</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K43" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="44" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+      <c r="K43" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>144</v>
+        <v>262</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>267</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="H44" s="7" t="s">
-        <v>280</v>
+        <v>273</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>26</v>
+        <v>82</v>
       </c>
       <c r="J44" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K44" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="45" spans="1:12" ht="43.2" x14ac:dyDescent="0.3">
+        <v>309</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>280</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K45" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="H45" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="I45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J45" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="K45" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="46" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>144</v>
+        <v>278</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>283</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>289</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="H46" s="7" t="s">
-        <v>291</v>
+        <v>284</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K46" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L46" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>308</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="K47" s="4" t="s">
         <v>293</v>
       </c>
-      <c r="C47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="H47" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="I47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="J47" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K47" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L47" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="48" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>144</v>
+        <v>289</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>301</v>
-      </c>
-      <c r="H48" s="7" t="s">
-        <v>302</v>
+        <v>295</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>296</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>26</v>
+        <v>124</v>
       </c>
       <c r="J48" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="K48" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L48" s="4" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
+        <v>307</v>
+      </c>
+      <c r="K48" s="4" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>144</v>
+        <v>289</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="H49" s="7" t="s">
-        <v>307</v>
+        <v>300</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>301</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="I49" s="2" t="s">
-        <v>26</v>
+        <v>303</v>
       </c>
       <c r="J49" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="K49" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="L49" s="4" t="s">
-        <v>309</v>
+      <c r="K49" s="4" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>

--- a/source/requirements_app_PEGS.xlsx
+++ b/source/requirements_app_PEGS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Etu\Desktop\M2\S2\Requierments\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9CB4440-1019-44E7-AA80-6614FF88EC49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C4E3187-3155-443E-82D1-54C57B174E8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1080,7 +1080,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B62C153A-7475-495F-A2B6-783C3C80DDCC}" name="Tableau1" displayName="Tableau1" ref="A1:K49" totalsRowShown="0" headerRowDxfId="3" headerRowBorderDxfId="2" tableBorderDxfId="1" totalsRowBorderDxfId="0">
   <autoFilter ref="A1:K49" xr:uid="{B62C153A-7475-495F-A2B6-783C3C80DDCC}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K49">
-    <sortCondition ref="D1:D49"/>
+    <sortCondition ref="A1:A49"/>
   </sortState>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{DADFA444-40BA-4A40-9FF2-A20B15D15DEE}" name="#"/>
@@ -1389,7 +1389,7 @@
   <dimension ref="A1:L53"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1448,34 +1448,34 @@
       </c>
       <c r="B2" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>E.1.1</v>
+        <v>G.1.1</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>133</v>
+        <v>79</v>
       </c>
       <c r="F2" t="s">
-        <v>134</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s">
-        <v>135</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I2" t="s">
-        <v>136</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>138</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
@@ -1484,34 +1484,34 @@
       </c>
       <c r="B3" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>E.3.2</v>
+        <v>G.2.2</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="G3" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="H3" t="s">
         <v>55</v>
       </c>
       <c r="I3" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="J3" t="s">
         <v>50</v>
       </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -1520,34 +1520,34 @@
       </c>
       <c r="B4" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>E.3.3</v>
+        <v>G.3.3</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="F4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="G4" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="H4" t="s">
         <v>55</v>
       </c>
       <c r="I4" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="J4" t="s">
         <v>50</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1556,34 +1556,34 @@
       </c>
       <c r="B5" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>E.3.4</v>
+        <v>G.5.4</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="F5" t="s">
-        <v>129</v>
+        <v>95</v>
       </c>
       <c r="G5" t="s">
-        <v>130</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
         <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="J5" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K5" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -1592,34 +1592,34 @@
       </c>
       <c r="B6" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>E.4.5</v>
+        <v>G.6.5</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="F6" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="H6" t="s">
         <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>121</v>
+        <v>24</v>
       </c>
       <c r="J6" t="s">
         <v>61</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="L6" s="12"/>
     </row>
@@ -1629,34 +1629,34 @@
       </c>
       <c r="B7" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>E.6.6</v>
+        <v>G.7.6</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E7" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="F7" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="G7" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I7" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="J7" t="s">
         <v>50</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7"/>
     </row>
@@ -1666,34 +1666,34 @@
       </c>
       <c r="B8" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>G.1.7</v>
+        <v>E.1.7</v>
       </c>
       <c r="C8" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>134</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>135</v>
       </c>
       <c r="H8" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>82</v>
+        <v>136</v>
       </c>
       <c r="J8" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>138</v>
       </c>
       <c r="L8" s="12"/>
     </row>
@@ -1703,34 +1703,34 @@
       </c>
       <c r="B9" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>G.2.8</v>
+        <v>E.3.8</v>
       </c>
       <c r="C9" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="F9" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="H9" t="s">
         <v>55</v>
       </c>
       <c r="I9" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="J9" t="s">
         <v>50</v>
       </c>
       <c r="K9" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="L9" s="5"/>
     </row>
@@ -1740,34 +1740,34 @@
       </c>
       <c r="B10" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>G.3.9</v>
+        <v>E.3.9</v>
       </c>
       <c r="C10" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="G10" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="H10" t="s">
         <v>55</v>
       </c>
       <c r="I10" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="J10" t="s">
         <v>50</v>
       </c>
       <c r="K10" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="L10" s="8"/>
     </row>
@@ -1777,34 +1777,34 @@
       </c>
       <c r="B11" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>G.5.10</v>
+        <v>E.3.10</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="F11" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>130</v>
       </c>
       <c r="H11" t="s">
         <v>55</v>
       </c>
       <c r="I11" t="s">
-        <v>97</v>
+        <v>131</v>
       </c>
       <c r="J11" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s">
-        <v>98</v>
+        <v>132</v>
       </c>
       <c r="L11" s="6"/>
     </row>
@@ -1814,34 +1814,34 @@
       </c>
       <c r="B12" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>G.6.11</v>
+        <v>E.4.11</v>
       </c>
       <c r="C12" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E12" t="s">
-        <v>99</v>
+        <v>118</v>
       </c>
       <c r="F12" t="s">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="G12" t="s">
-        <v>101</v>
+        <v>120</v>
       </c>
       <c r="H12" t="s">
         <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
+        <v>121</v>
       </c>
       <c r="J12" t="s">
         <v>61</v>
       </c>
       <c r="K12" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="L12" s="8"/>
     </row>
@@ -1851,34 +1851,34 @@
       </c>
       <c r="B13" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>G.7.12</v>
+        <v>E.6.12</v>
       </c>
       <c r="C13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="F13" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="H13" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="J13" t="s">
         <v>50</v>
       </c>
       <c r="K13" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="L13" s="6"/>
     </row>
@@ -1888,34 +1888,34 @@
       </c>
       <c r="B14" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>P.1.13</v>
+        <v>S.1.13</v>
       </c>
       <c r="C14" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>141</v>
       </c>
       <c r="H14" t="s">
         <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>49</v>
+        <v>142</v>
       </c>
       <c r="J14" t="s">
         <v>50</v>
       </c>
       <c r="K14" t="s">
-        <v>51</v>
+        <v>143</v>
       </c>
       <c r="L14" s="8"/>
     </row>
@@ -1925,34 +1925,34 @@
       </c>
       <c r="B15" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>P.3.14</v>
+        <v>S.1.14</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="I15" t="s">
-        <v>14</v>
+        <v>148</v>
       </c>
       <c r="J15" t="s">
         <v>61</v>
       </c>
       <c r="K15" t="s">
-        <v>62</v>
+        <v>149</v>
       </c>
       <c r="L15" s="6"/>
     </row>
@@ -1962,34 +1962,34 @@
       </c>
       <c r="B16" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>P.4.15</v>
+        <v>S.2.15</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>151</v>
       </c>
       <c r="G16" t="s">
-        <v>54</v>
+        <v>152</v>
       </c>
       <c r="H16" t="s">
         <v>55</v>
       </c>
       <c r="I16" t="s">
-        <v>56</v>
+        <v>34</v>
       </c>
       <c r="J16" t="s">
         <v>50</v>
       </c>
       <c r="K16" t="s">
-        <v>57</v>
+        <v>153</v>
       </c>
       <c r="L16" s="8"/>
     </row>
@@ -1999,34 +1999,34 @@
       </c>
       <c r="B17" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>P.5.16</v>
+        <v>S.2.16</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="E17" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="F17" t="s">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="G17" t="s">
-        <v>71</v>
+        <v>156</v>
       </c>
       <c r="H17" t="s">
         <v>55</v>
       </c>
       <c r="I17" t="s">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="J17" t="s">
         <v>61</v>
       </c>
       <c r="K17" t="s">
-        <v>73</v>
+        <v>157</v>
       </c>
       <c r="L17" s="6"/>
     </row>
@@ -2036,34 +2036,34 @@
       </c>
       <c r="B18" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>P.6.17</v>
+        <v>S.2.17</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I18" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="J18" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s">
-        <v>78</v>
+        <v>161</v>
       </c>
       <c r="L18" s="8"/>
     </row>
@@ -2073,34 +2073,34 @@
       </c>
       <c r="B19" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>P.7.18</v>
+        <v>S.2.18</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="E19" t="s">
-        <v>63</v>
+        <v>162</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>163</v>
       </c>
       <c r="G19" t="s">
-        <v>65</v>
+        <v>164</v>
       </c>
       <c r="H19" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I19" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="J19" t="s">
         <v>50</v>
       </c>
       <c r="K19" t="s">
-        <v>68</v>
+        <v>165</v>
       </c>
       <c r="L19" s="5"/>
     </row>
@@ -2110,34 +2110,34 @@
       </c>
       <c r="B20" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.1.19</v>
+        <v>S.2.19</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>139</v>
+        <v>166</v>
       </c>
       <c r="F20" t="s">
-        <v>140</v>
+        <v>167</v>
       </c>
       <c r="G20" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I20" t="s">
-        <v>142</v>
+        <v>34</v>
       </c>
       <c r="J20" t="s">
         <v>50</v>
       </c>
       <c r="K20" t="s">
-        <v>143</v>
+        <v>169</v>
       </c>
       <c r="L20" s="12"/>
     </row>
@@ -2147,34 +2147,34 @@
       </c>
       <c r="B21" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.1.20</v>
+        <v>S.2.20</v>
       </c>
       <c r="C21" t="s">
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E21" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="F21" t="s">
-        <v>145</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
-        <v>146</v>
+        <v>172</v>
       </c>
       <c r="H21" t="s">
-        <v>147</v>
+        <v>55</v>
       </c>
       <c r="I21" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="J21" t="s">
         <v>61</v>
       </c>
       <c r="K21" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="L21" s="5"/>
     </row>
@@ -2193,25 +2193,25 @@
         <v>33</v>
       </c>
       <c r="E22" t="s">
-        <v>150</v>
+        <v>174</v>
       </c>
       <c r="F22" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="G22" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
       <c r="H22" t="s">
         <v>55</v>
       </c>
       <c r="I22" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J22" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K22" t="s">
-        <v>153</v>
+        <v>177</v>
       </c>
       <c r="L22" s="12"/>
     </row>
@@ -2230,25 +2230,25 @@
         <v>33</v>
       </c>
       <c r="E23" t="s">
-        <v>154</v>
+        <v>178</v>
       </c>
       <c r="F23" t="s">
-        <v>155</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
       <c r="H23" t="s">
         <v>55</v>
       </c>
       <c r="I23" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J23" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K23" t="s">
-        <v>157</v>
+        <v>181</v>
       </c>
       <c r="L23" s="6"/>
     </row>
@@ -2267,25 +2267,25 @@
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="F24" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="G24" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="H24" t="s">
         <v>55</v>
       </c>
       <c r="I24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J24" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="K24" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="L24" s="8"/>
     </row>
@@ -2304,25 +2304,25 @@
         <v>33</v>
       </c>
       <c r="E25" t="s">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>186</v>
       </c>
       <c r="G25" t="s">
-        <v>164</v>
+        <v>187</v>
       </c>
       <c r="H25" t="s">
         <v>55</v>
       </c>
       <c r="I25" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J25" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="K25" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="L25" s="6"/>
     </row>
@@ -2341,13 +2341,13 @@
         <v>33</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>189</v>
       </c>
       <c r="F26" t="s">
-        <v>167</v>
+        <v>190</v>
       </c>
       <c r="G26" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="H26" t="s">
         <v>55</v>
@@ -2356,10 +2356,10 @@
         <v>34</v>
       </c>
       <c r="J26" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K26" t="s">
-        <v>169</v>
+        <v>192</v>
       </c>
       <c r="L26" s="8"/>
     </row>
@@ -2378,13 +2378,13 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>170</v>
+        <v>193</v>
       </c>
       <c r="F27" t="s">
-        <v>171</v>
+        <v>194</v>
       </c>
       <c r="G27" t="s">
-        <v>172</v>
+        <v>195</v>
       </c>
       <c r="H27" t="s">
         <v>55</v>
@@ -2396,7 +2396,7 @@
         <v>61</v>
       </c>
       <c r="K27" t="s">
-        <v>173</v>
+        <v>196</v>
       </c>
       <c r="L27" s="6"/>
     </row>
@@ -2415,25 +2415,25 @@
         <v>33</v>
       </c>
       <c r="E28" t="s">
-        <v>174</v>
+        <v>197</v>
       </c>
       <c r="F28" t="s">
-        <v>175</v>
+        <v>198</v>
       </c>
       <c r="G28" t="s">
-        <v>176</v>
+        <v>199</v>
       </c>
       <c r="H28" t="s">
         <v>55</v>
       </c>
       <c r="I28" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="J28" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K28" t="s">
-        <v>177</v>
+        <v>200</v>
       </c>
       <c r="L28" s="8"/>
     </row>
@@ -2452,25 +2452,25 @@
         <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>178</v>
+        <v>201</v>
       </c>
       <c r="F29" t="s">
-        <v>179</v>
+        <v>202</v>
       </c>
       <c r="G29" t="s">
-        <v>180</v>
+        <v>203</v>
       </c>
       <c r="H29" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>34</v>
+        <v>126</v>
       </c>
       <c r="J29" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="K29" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="L29" s="6"/>
     </row>
@@ -2489,25 +2489,25 @@
         <v>33</v>
       </c>
       <c r="E30" t="s">
-        <v>36</v>
+        <v>205</v>
       </c>
       <c r="F30" t="s">
-        <v>182</v>
+        <v>206</v>
       </c>
       <c r="G30" t="s">
-        <v>183</v>
+        <v>207</v>
       </c>
       <c r="H30" t="s">
         <v>55</v>
       </c>
       <c r="I30" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="J30" t="s">
         <v>137</v>
       </c>
       <c r="K30" t="s">
-        <v>184</v>
+        <v>208</v>
       </c>
       <c r="L30" s="8"/>
     </row>
@@ -2526,25 +2526,25 @@
         <v>33</v>
       </c>
       <c r="E31" t="s">
-        <v>185</v>
+        <v>209</v>
       </c>
       <c r="F31" t="s">
-        <v>186</v>
+        <v>210</v>
       </c>
       <c r="G31" t="s">
-        <v>187</v>
+        <v>211</v>
       </c>
       <c r="H31" t="s">
         <v>55</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J31" t="s">
-        <v>137</v>
+        <v>212</v>
       </c>
       <c r="K31" t="s">
-        <v>188</v>
+        <v>213</v>
       </c>
       <c r="L31" s="6"/>
     </row>
@@ -2563,25 +2563,25 @@
         <v>33</v>
       </c>
       <c r="E32" t="s">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="F32" t="s">
-        <v>190</v>
+        <v>215</v>
       </c>
       <c r="G32" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="H32" t="s">
         <v>55</v>
       </c>
       <c r="I32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="J32" t="s">
-        <v>61</v>
+        <v>212</v>
       </c>
       <c r="K32" t="s">
-        <v>192</v>
+        <v>217</v>
       </c>
       <c r="L32" s="8"/>
     </row>
@@ -2591,34 +2591,34 @@
       </c>
       <c r="B33" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.2.32</v>
+        <v>S.3.32</v>
       </c>
       <c r="C33" t="s">
         <v>31</v>
       </c>
       <c r="D33" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>193</v>
+        <v>218</v>
       </c>
       <c r="F33" t="s">
-        <v>194</v>
+        <v>219</v>
       </c>
       <c r="G33" t="s">
-        <v>195</v>
+        <v>220</v>
       </c>
       <c r="H33" t="s">
         <v>55</v>
       </c>
       <c r="I33" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="J33" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K33" t="s">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="L33" s="6"/>
     </row>
@@ -2628,22 +2628,22 @@
       </c>
       <c r="B34" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.2.33</v>
+        <v>S.3.33</v>
       </c>
       <c r="C34" t="s">
         <v>31</v>
       </c>
       <c r="D34" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E34" t="s">
-        <v>197</v>
+        <v>222</v>
       </c>
       <c r="F34" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="G34" t="s">
-        <v>199</v>
+        <v>224</v>
       </c>
       <c r="H34" t="s">
         <v>55</v>
@@ -2652,10 +2652,10 @@
         <v>126</v>
       </c>
       <c r="J34" t="s">
-        <v>50</v>
+        <v>137</v>
       </c>
       <c r="K34" t="s">
-        <v>200</v>
+        <v>225</v>
       </c>
       <c r="L34" s="8"/>
     </row>
@@ -2665,34 +2665,34 @@
       </c>
       <c r="B35" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.2.34</v>
+        <v>S.3.34</v>
       </c>
       <c r="C35" t="s">
         <v>31</v>
       </c>
       <c r="D35" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="F35" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="G35" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="H35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="I35" t="s">
-        <v>126</v>
+        <v>35</v>
       </c>
       <c r="J35" t="s">
         <v>137</v>
       </c>
       <c r="K35" t="s">
-        <v>204</v>
+        <v>229</v>
       </c>
       <c r="L35" s="6"/>
     </row>
@@ -2702,34 +2702,34 @@
       </c>
       <c r="B36" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.2.35</v>
+        <v>S.4.35</v>
       </c>
       <c r="C36" t="s">
         <v>31</v>
       </c>
       <c r="D36" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E36" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="F36" t="s">
-        <v>206</v>
+        <v>231</v>
       </c>
       <c r="G36" t="s">
-        <v>207</v>
+        <v>232</v>
       </c>
       <c r="H36" t="s">
         <v>55</v>
       </c>
       <c r="I36" t="s">
-        <v>131</v>
+        <v>97</v>
       </c>
       <c r="J36" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="K36" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="L36" s="8"/>
     </row>
@@ -2739,34 +2739,34 @@
       </c>
       <c r="B37" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.2.36</v>
+        <v>S.4.36</v>
       </c>
       <c r="C37" t="s">
         <v>31</v>
       </c>
       <c r="D37" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E37" t="s">
-        <v>209</v>
+        <v>234</v>
       </c>
       <c r="F37" t="s">
-        <v>210</v>
+        <v>235</v>
       </c>
       <c r="G37" t="s">
-        <v>211</v>
+        <v>236</v>
       </c>
       <c r="H37" t="s">
         <v>55</v>
       </c>
       <c r="I37" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="J37" t="s">
-        <v>212</v>
+        <v>50</v>
       </c>
       <c r="K37" t="s">
-        <v>213</v>
+        <v>237</v>
       </c>
       <c r="L37" s="6"/>
     </row>
@@ -2776,34 +2776,34 @@
       </c>
       <c r="B38" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.2.37</v>
+        <v>S.4.37</v>
       </c>
       <c r="C38" t="s">
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E38" t="s">
-        <v>214</v>
+        <v>238</v>
       </c>
       <c r="F38" t="s">
-        <v>215</v>
+        <v>239</v>
       </c>
       <c r="G38" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="H38" t="s">
         <v>55</v>
       </c>
       <c r="I38" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="J38" t="s">
-        <v>212</v>
+        <v>137</v>
       </c>
       <c r="K38" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="L38" s="8"/>
     </row>
@@ -2813,34 +2813,34 @@
       </c>
       <c r="B39" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.3.38</v>
+        <v>S.5.38</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="F39" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="G39" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="H39" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="J39" t="s">
         <v>50</v>
       </c>
       <c r="K39" t="s">
-        <v>221</v>
+        <v>245</v>
       </c>
       <c r="L39" s="6"/>
     </row>
@@ -2850,22 +2850,22 @@
       </c>
       <c r="B40" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.3.39</v>
+        <v>S.5.39</v>
       </c>
       <c r="C40" t="s">
         <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s">
-        <v>222</v>
+        <v>246</v>
       </c>
       <c r="F40" t="s">
-        <v>223</v>
+        <v>247</v>
       </c>
       <c r="G40" t="s">
-        <v>224</v>
+        <v>248</v>
       </c>
       <c r="H40" t="s">
         <v>55</v>
@@ -2874,10 +2874,10 @@
         <v>126</v>
       </c>
       <c r="J40" t="s">
-        <v>137</v>
+        <v>61</v>
       </c>
       <c r="K40" t="s">
-        <v>225</v>
+        <v>249</v>
       </c>
       <c r="L40" s="8"/>
     </row>
@@ -2887,34 +2887,34 @@
       </c>
       <c r="B41" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.3.40</v>
+        <v>S.6.40</v>
       </c>
       <c r="C41" t="s">
         <v>31</v>
       </c>
       <c r="D41" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E41" t="s">
-        <v>226</v>
+        <v>250</v>
       </c>
       <c r="F41" t="s">
-        <v>227</v>
+        <v>251</v>
       </c>
       <c r="G41" t="s">
-        <v>228</v>
+        <v>252</v>
       </c>
       <c r="H41" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I41" t="s">
-        <v>35</v>
+        <v>126</v>
       </c>
       <c r="J41" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="K41" t="s">
-        <v>229</v>
+        <v>253</v>
       </c>
       <c r="L41" s="6"/>
     </row>
@@ -2924,34 +2924,34 @@
       </c>
       <c r="B42" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.4.41</v>
+        <v>S.6.41</v>
       </c>
       <c r="C42" t="s">
         <v>31</v>
       </c>
       <c r="D42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E42" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
       <c r="F42" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="G42" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="H42" t="s">
         <v>55</v>
       </c>
       <c r="I42" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="J42" t="s">
         <v>50</v>
       </c>
       <c r="K42" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="L42" s="8"/>
     </row>
@@ -2961,34 +2961,34 @@
       </c>
       <c r="B43" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.4.42</v>
+        <v>S.6.42</v>
       </c>
       <c r="C43" t="s">
         <v>31</v>
       </c>
       <c r="D43" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E43" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="F43" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="G43" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="H43" t="s">
         <v>55</v>
       </c>
       <c r="I43" t="s">
-        <v>97</v>
+        <v>261</v>
       </c>
       <c r="J43" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K43" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
       <c r="L43" s="6"/>
     </row>
@@ -2998,34 +2998,34 @@
       </c>
       <c r="B44" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.4.43</v>
+        <v>P.1.43</v>
       </c>
       <c r="C44" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>238</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>239</v>
+        <v>46</v>
       </c>
       <c r="G44" t="s">
-        <v>240</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>97</v>
+        <v>49</v>
       </c>
       <c r="J44" t="s">
-        <v>137</v>
+        <v>50</v>
       </c>
       <c r="K44" t="s">
-        <v>241</v>
+        <v>51</v>
       </c>
       <c r="L44" s="8"/>
     </row>
@@ -3035,22 +3035,22 @@
       </c>
       <c r="B45" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.5.44</v>
+        <v>P.3.44</v>
       </c>
       <c r="C45" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="E45" t="s">
-        <v>242</v>
+        <v>58</v>
       </c>
       <c r="F45" t="s">
-        <v>243</v>
+        <v>59</v>
       </c>
       <c r="G45" t="s">
-        <v>244</v>
+        <v>60</v>
       </c>
       <c r="H45" t="s">
         <v>48</v>
@@ -3059,10 +3059,10 @@
         <v>14</v>
       </c>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K45" t="s">
-        <v>245</v>
+        <v>62</v>
       </c>
       <c r="L45" s="6"/>
     </row>
@@ -3072,34 +3072,34 @@
       </c>
       <c r="B46" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.5.45</v>
+        <v>P.4.45</v>
       </c>
       <c r="C46" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="E46" t="s">
-        <v>246</v>
+        <v>52</v>
       </c>
       <c r="F46" t="s">
-        <v>247</v>
+        <v>53</v>
       </c>
       <c r="G46" t="s">
-        <v>248</v>
+        <v>54</v>
       </c>
       <c r="H46" t="s">
         <v>55</v>
       </c>
       <c r="I46" t="s">
-        <v>126</v>
+        <v>56</v>
       </c>
       <c r="J46" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s">
-        <v>249</v>
+        <v>57</v>
       </c>
       <c r="L46" s="8"/>
     </row>
@@ -3109,34 +3109,34 @@
       </c>
       <c r="B47" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.6.46</v>
+        <v>P.5.46</v>
       </c>
       <c r="C47" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="E47" t="s">
-        <v>250</v>
+        <v>69</v>
       </c>
       <c r="F47" t="s">
-        <v>251</v>
+        <v>70</v>
       </c>
       <c r="G47" t="s">
-        <v>252</v>
+        <v>71</v>
       </c>
       <c r="H47" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="I47" t="s">
-        <v>126</v>
+        <v>72</v>
       </c>
       <c r="J47" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K47" t="s">
-        <v>253</v>
+        <v>73</v>
       </c>
       <c r="L47" s="6"/>
     </row>
@@ -3146,34 +3146,34 @@
       </c>
       <c r="B48" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.6.47</v>
+        <v>P.6.47</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>43</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>254</v>
+        <v>74</v>
       </c>
       <c r="F48" t="s">
-        <v>255</v>
+        <v>75</v>
       </c>
       <c r="G48" t="s">
-        <v>256</v>
+        <v>76</v>
       </c>
       <c r="H48" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="J48" t="s">
-        <v>50</v>
+        <v>61</v>
       </c>
       <c r="K48" t="s">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="L48" s="8"/>
     </row>
@@ -3183,34 +3183,34 @@
       </c>
       <c r="B49" t="str">
         <f>CONCATENATE(Tableau1[[#This Row],[PEGS Ref]],".",Tableau1[[#This Row],['#]])</f>
-        <v>S.6.48</v>
+        <v>P.7.48</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>43</v>
+        <v>15</v>
       </c>
       <c r="E49" t="s">
-        <v>258</v>
+        <v>63</v>
       </c>
       <c r="F49" t="s">
-        <v>259</v>
+        <v>64</v>
       </c>
       <c r="G49" t="s">
-        <v>260</v>
+        <v>65</v>
       </c>
       <c r="H49" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
       <c r="I49" t="s">
-        <v>261</v>
+        <v>67</v>
       </c>
       <c r="J49" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="K49" t="s">
-        <v>262</v>
+        <v>68</v>
       </c>
       <c r="L49" s="6"/>
     </row>
